--- a/data/income_statement/3digits/total/052_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/052_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>052-Mining of lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>052-Mining of lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4106995.05891</v>
+        <v>4108435.038850001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3985541.83268</v>
+        <v>3985569.33304</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4930166.763040001</v>
+        <v>4934343.336719999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5084112.87013</v>
+        <v>5159681.26635</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4864456.5695</v>
+        <v>4896253.52791</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4539412.83625</v>
+        <v>4569099.48659</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4157463.34412</v>
+        <v>4197376.06121</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4959413.51835</v>
+        <v>4960575.00715</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6328701.46425</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8188462.81268</v>
+        <v>7043624.771280001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7553834.925770001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7714171.872799999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7950129.758</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4077365.75722</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3961175.898869999</v>
+        <v>3961175.89887</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4827570.86032</v>
+        <v>4831747.434</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5043476.82597</v>
+        <v>5104820.87678</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4807984.47041</v>
+        <v>4839757.7747</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4504759.983530001</v>
+        <v>4533299.439979999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4091429.135000001</v>
+        <v>4128212.75764</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4891339.470930001</v>
+        <v>4892500.959729999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6272504.15087</v>
+        <v>6272504.150870001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8101131.19459</v>
+        <v>6956293.15319</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7009462.420569999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7166741.50074</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7073887.767</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3628.77847</v>
@@ -1037,7 +953,7 @@
         <v>21710.59233</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>22290.95706</v>
+        <v>35339.35103</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>29965.21256</v>
@@ -1060,50 +976,60 @@
       <c r="M7" s="48" t="n">
         <v>18.0285</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>4072.88</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>26000.52322000001</v>
+        <v>27440.50316</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>14055.86605</v>
+        <v>14083.36641</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>80885.31039</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>18345.0871</v>
+        <v>19521.03854</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26506.88653</v>
+        <v>26530.54065</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32668.08992</v>
+        <v>33815.28381</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>48868.31657</v>
+        <v>51997.41102000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>66703.04977999999</v>
+        <v>66703.04978</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>53339.5483</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>85786.27621000001</v>
+        <v>85786.27621</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>544354.4767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>547412.3435600001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>872169.111</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>8077.79055</v>
@@ -1115,34 +1041,39 @@
         <v>7272.21322</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6004.91709</v>
+        <v>6873.3214</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18312.89032</v>
+        <v>19065.41498</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13178.49514</v>
+        <v>13215.16241</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7606.6566</v>
+        <v>7694.3311</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>31975.29655</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>46891.61565000001</v>
+        <v>46891.61565</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1180737.35972</v>
+        <v>28553.7299</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>27102.12539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27351.34356</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19897.311</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6834.87265</v>
@@ -1154,13 +1085,13 @@
         <v>5501.86342</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4734.08934</v>
+        <v>4785.81304</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10366.09485</v>
+        <v>10632.11955</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3566.96307</v>
+        <v>3595.89616</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>2508.27429</v>
@@ -1169,19 +1100,24 @@
         <v>25854.27426</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>39551.7629</v>
+        <v>39551.76290000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1171508.51932</v>
+        <v>19324.8895</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>13789.36999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13924.79629</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4525.837</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>545.16238</v>
@@ -1193,7 +1129,7 @@
         <v>189.71251</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>425.45216</v>
+        <v>453.79756</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>750.96922</v>
@@ -1202,7 +1138,7 @@
         <v>2846.94669</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1281.15849</v>
+        <v>1368.83299</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>3207.43845</v>
@@ -1214,13 +1150,18 @@
         <v>4912.75721</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7565.17565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7678.723970000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6975.656</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>697.75552</v>
@@ -1232,13 +1173,13 @@
         <v>1580.63729</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>845.3755900000001</v>
+        <v>1633.7108</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7195.82625</v>
+        <v>7682.326210000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6764.58538</v>
+        <v>6772.319560000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3817.22382</v>
@@ -1250,55 +1191,65 @@
         <v>2486.20929</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4316.08319</v>
+        <v>4316.083189999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5747.57975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5747.8233</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8395.817999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4098917.26836</v>
+        <v>4100357.2483</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3978608.907670001</v>
+        <v>3978636.40803</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4922894.54982</v>
+        <v>4927071.1235</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5078107.953039999</v>
+        <v>5152807.944949999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4846143.67918</v>
+        <v>4877188.112930001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4526234.341109999</v>
+        <v>4555884.32418</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4149856.68752</v>
+        <v>4189681.73011</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4927438.221799999</v>
+        <v>4928599.7106</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6281809.8486</v>
+        <v>6281809.848599999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7007725.452959999</v>
+        <v>7015071.04138</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7526732.80038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7686820.52924</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7930232.447</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3044346.93755</v>
@@ -1307,37 +1258,42 @@
         <v>2990871.10983</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3663624.76481</v>
+        <v>3665151.19846</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3605487.56186</v>
+        <v>3663266.29046</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3805459.0757</v>
+        <v>3835677.64425</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3691337.19736</v>
+        <v>3725411.09185</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3563962.60657</v>
+        <v>3597372.68876</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4495284.742349999</v>
+        <v>4496020.18551</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5946482.10172</v>
+        <v>5946482.101720002</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6117786.19995</v>
+        <v>6125239.58664</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6521415.701230002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6667255.28599</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6771338.246</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1694335.34769</v>
@@ -1346,22 +1302,22 @@
         <v>1805659.23656</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2461387.34957</v>
+        <v>2462483.67425</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2266314.29423</v>
+        <v>2309049.01841</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2189701.60981</v>
+        <v>2215819.23437</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1781541.49226</v>
+        <v>1811168.32132</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1587247.05916</v>
+        <v>1604287.20283</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1837027.72027</v>
+        <v>1837644.45284</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2455423.16316</v>
@@ -1370,13 +1326,18 @@
         <v>3838338.91528</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4364340.654949999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4500919.61354</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4368928.711</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>737010.99711</v>
@@ -1385,37 +1346,42 @@
         <v>577491.70363</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>585665.88234</v>
+        <v>585871.51373</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>844742.4088</v>
+        <v>859748.5837999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1058651.8199</v>
+        <v>1061031.82136</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1184084.65977</v>
+        <v>1187888.01539</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1344858.24147</v>
+        <v>1358383.40387</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1774687.37738</v>
+        <v>1774774.90315</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2476148.786969999</v>
+        <v>2476148.78697</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1005317.94725</v>
+        <v>1005332.11685</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>947635.2042799999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>949836.46724</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1265836.105</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>589359.78004</v>
@@ -1424,37 +1390,42 @@
         <v>596173.4319600001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>606101.4583299999</v>
+        <v>606325.93591</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>419543.9711900001</v>
+        <v>419581.80061</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>543644.5118699999</v>
+        <v>545365.4543999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>702950.1950500001</v>
+        <v>703593.9048600001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>622374.1290800001</v>
+        <v>623354.2107800001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>873632.76347</v>
+        <v>873632.7634700001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1003270.36305</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1261846.37184</v>
+        <v>1269285.58893</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1197687.7726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1204747.13581</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1116520.457</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>23640.81271</v>
@@ -1475,10 +1446,10 @@
         <v>22760.85028</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9483.17686</v>
+        <v>11347.87128</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9936.881230000001</v>
+        <v>9968.066050000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>11639.78854</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>11752.0694</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>20052.973</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1054570.33081</v>
+        <v>1056010.31075</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>987737.7978399999</v>
+        <v>987765.2982000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1259269.78501</v>
+        <v>1261919.92504</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1472620.39118</v>
+        <v>1489541.65449</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1040684.60348</v>
+        <v>1041510.46868</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>834897.1437500002</v>
+        <v>830473.2323299999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>585894.0809500001</v>
+        <v>592309.04135</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>432153.47945</v>
+        <v>432579.52509</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>335327.74688</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>889939.25301</v>
+        <v>889831.45474</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1005317.09915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1019565.24325</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1158894.201</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>426593.02858</v>
+        <v>428172.9186099999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>441635.72031</v>
+        <v>441841.0800900001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>528476.41206</v>
+        <v>529775.7524400001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>576975.66607</v>
+        <v>592982.84101</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>540606.12126</v>
+        <v>554716.80188</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>649252.9926900001</v>
+        <v>659391.83707</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>609873.25478</v>
+        <v>621503.5363200001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>652806.96323</v>
+        <v>653465.8311</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>854438.85762</v>
+        <v>854438.8576199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>930764.07491</v>
+        <v>930888.7980200001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>940322.8990900001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>945256.96751</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1092374.882</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>921.89095</v>
@@ -1580,19 +1566,19 @@
         <v>3568.2673</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4744.34398</v>
+        <v>4991.43309</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>3362.38455</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5632.23582</v>
+        <v>6084.788529999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8762.338390000001</v>
+        <v>9316.58172</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6525.739060000001</v>
+        <v>6566.241390000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>12180.00078</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2130.54438</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1889.233</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>121389.24678</v>
@@ -1619,22 +1610,22 @@
         <v>128920.58809</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>178285.18248</v>
+        <v>179306.27733</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>173123.50162</v>
+        <v>183163.63573</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>174543.34366</v>
+        <v>180465.20167</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>208353.93625</v>
+        <v>211540.97479</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>208192.49111</v>
+        <v>213418.05616</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>206337.37815</v>
+        <v>206898.81822</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>309020.1849699999</v>
@@ -1643,91 +1634,106 @@
         <v>356543.65851</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>327631.5974199999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>329544.05078</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>381970.565</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>304281.89085</v>
+        <v>305861.78088</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>309146.86492</v>
+        <v>309352.2247</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>345446.8856</v>
+        <v>345478.0420200001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>400489.7799</v>
+        <v>406456.82073</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>360430.5417800001</v>
+        <v>368166.81168</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>432136.71805</v>
+        <v>438534.28056</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>395155.02461</v>
+        <v>401519.2387700001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>434289.5842999999</v>
+        <v>434387.0121000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>539873.4669199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>571418.63914</v>
+        <v>571543.36225</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>610560.7572900001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>613582.3723500001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>708515.084</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>627977.3022299999</v>
+        <v>627837.3921400001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>546102.07753</v>
+        <v>545924.21811</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>730793.37295</v>
+        <v>732144.1726</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>895644.7251100001</v>
+        <v>896558.81348</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>500078.4822199999</v>
+        <v>486793.6668</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>185644.15106</v>
+        <v>171081.39526</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-23979.17383</v>
+        <v>-29194.49497</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-220653.48378</v>
+        <v>-220886.30601</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-519111.1107399999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-40824.8219</v>
+        <v>-41057.34328</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>64994.20006000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>74308.27574</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>66519.319</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>228472.60523</v>
@@ -1736,37 +1742,42 @@
         <v>292198.55385</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>412281.94385</v>
+        <v>412107.62393</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>606719.7274699999</v>
+        <v>654293.2745000002</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>299637.24878</v>
+        <v>335600.276</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>339544.94111</v>
+        <v>345961.1241899999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>357201.56964</v>
+        <v>378521.47816</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>511703.12314</v>
+        <v>511704.8342</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>636490.70917</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>814168.6454299998</v>
+        <v>814222.92532</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>582676.99834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>582729.32354</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>775503.151</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>84.03166999999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2117.23693</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4588.33116</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>301.80128</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>23333.22955</v>
@@ -1856,34 +1877,39 @@
         <v>31426.31591999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>30345.55996</v>
+        <v>30617.72891</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>18071.97827</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>48649.26492</v>
+        <v>48650.85692</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>37330.09163</v>
+        <v>37378.51469</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>53449.71758</v>
+        <v>53451.42864</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>69386.92485000001</v>
+        <v>69386.92485</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>173732.2372</v>
+        <v>173779.37757</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>265400.23028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>265396.62328</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>225121.883</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>753.4775100000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>864.34142</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>953.018</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>16710.93332</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1156.00735</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1982.173</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2113.53038</v>
@@ -1982,10 +2018,10 @@
         <v>941.9085799999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>65.56329999999998</v>
+        <v>66.92156999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>56.81948</v>
+        <v>56.81948000000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>44.4328</v>
@@ -1996,32 +2032,37 @@
       <c r="M31" s="48" t="n">
         <v>1097.80851</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>432.281</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>91404.71014</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>35708.66343</v>
+        <v>35708.66342999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>20559.17862</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>14765.00079</v>
+        <v>34960.30668</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17315.16237</v>
+        <v>29118.0928</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23332.02732</v>
+        <v>23714.46858</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>50579.70849</v>
+        <v>56258.05408</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>50370.33757</v>
@@ -2030,16 +2071,21 @@
         <v>34929.72873</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>82016.67955000002</v>
+        <v>82016.67955</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>47905.49624</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>64326.621</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>11911.04102</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4.53141</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2917.713</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>77573.32048000001</v>
@@ -2126,37 +2182,42 @@
         <v>93129.97375</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>335307.76152</v>
+        <v>335133.4416</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>113382.80808</v>
+        <v>140488.88027</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>145037.01471</v>
+        <v>169197.1115</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>141089.48771</v>
+        <v>147121.63753</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>253179.64133</v>
+        <v>268771.42293</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>402605.04857</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>497072.2413</v>
+        <v>497072.2412999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>552500.1218199999</v>
+        <v>552507.2613400001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>263829.54492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>263885.47712</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>479707.212</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>42835.55798999999</v>
@@ -2168,34 +2229,39 @@
         <v>48353.72742</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>54126.66772999999</v>
+        <v>70731.13144</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>82489.94176999999</v>
+        <v>106621.74797</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>55190.77686999999</v>
+        <v>56597.93906</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>95885.34159</v>
+        <v>98828.44553</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>93892.36838999999</v>
+        <v>93892.36839</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>90931.47118000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>218932.68857</v>
+        <v>218938.74887</v>
       </c>
       <c r="M36" s="47" t="n">
         <v>505134.32448</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>501852.263</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20.23091</v>
@@ -2213,7 +2279,7 @@
         <v>76.1828</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>67.13928999999999</v>
+        <v>67.13929</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>2429.90637</v>
@@ -2230,14 +2296,19 @@
       <c r="M37" s="48" t="n">
         <v>22.30979</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>99.67700000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4854.95047</v>
+        <v>4854.950470000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>2906.06791</v>
@@ -2246,10 +2317,10 @@
         <v>1186.23562</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7711.702730000001</v>
+        <v>10137.56759</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1985.83466</v>
+        <v>2051.78966</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>8407.81416</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>247433.50935</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>13534.322</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.586</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>7.90684</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>29394.84968</v>
@@ -2324,34 +2405,39 @@
         <v>35358.80081</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7779.34103</v>
+        <v>20096.43841</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>20139.48921</v>
+        <v>43611.85657</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>22348.09192</v>
+        <v>23259.43506</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46687.12705999999</v>
+        <v>49133.77524000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>42319.77853999999</v>
+        <v>42319.77854</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>33858.47804</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>152435.40424</v>
+        <v>152441.46454</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>89528.19558</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>89528.19558000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>148880.305</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.36582</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1799.17372</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1123.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8558.57511</v>
@@ -2441,16 +2537,16 @@
         <v>11751.55839</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>38586.75569000001</v>
+        <v>40448.25715999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>59432.70549</v>
+        <v>60026.18933000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>24367.7315</v>
+        <v>24863.55055</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32187.48613</v>
+        <v>32683.94189</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>23503.52555</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>166343.2292</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>338214.864</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>172745.01376</v>
@@ -2477,37 +2578,42 @@
         <v>84173.81204999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>74357.15975000001</v>
+        <v>74470.85053999998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>40668.0579</v>
+        <v>62861.92681</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>55699.89848999999</v>
+        <v>95767.35725</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>99733.56225999999</v>
+        <v>100620.09995</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>137800.13132</v>
+        <v>138881.6735</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>155965.89459</v>
+        <v>155990.28165</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>179569.68946</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>346285.15357</v>
+        <v>346286.98377</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>398430.25669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>406857.53889</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>238702.424</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>105713.46653</v>
@@ -2516,40 +2622,45 @@
         <v>62609.26471</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>50661.73195</v>
+        <v>50775.42273999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>34740.89953</v>
+        <v>56934.76844</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>50950.804</v>
+        <v>91018.26275999998</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>94279.70156999999</v>
+        <v>95166.23926</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>122082.04649</v>
+        <v>123163.58867</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>144168.94571</v>
+        <v>144193.33277</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>166478.46577</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>319287.9357</v>
+        <v>319289.7659</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>388462.7119699999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>396889.99417</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>225383.696</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>67031.54723</v>
+        <v>67031.54723000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>21564.54734</v>
@@ -2558,7 +2669,7 @@
         <v>23695.4278</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5927.158369999999</v>
+        <v>5927.15837</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>4749.09449</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>9967.54472</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>13318.728</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>640869.3357099999</v>
+        <v>640729.42562</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>725138.85991</v>
+        <v>724961.00049</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1020364.42963</v>
+        <v>1021427.21857</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1407569.72695</v>
+        <v>1417259.02973</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>661525.8907400001</v>
+        <v>620004.8375799999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>370264.75304</v>
+        <v>359824.48044</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>99536.92290000003</v>
+        <v>111616.86416</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>41191.37638</v>
+        <v>40935.87815</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-153121.56221</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>208125.98139</v>
+        <v>207939.8494</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-255893.3827700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-254954.26409</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>101467.783</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>28454.96546</v>
@@ -2633,37 +2754,42 @@
         <v>23893.65395</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>44550.20885999999</v>
+        <v>44557.83597</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>64871.22810000001</v>
+        <v>66412.48432</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>29314.58135</v>
+        <v>30461.04104</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>95989.05462000001</v>
+        <v>100663.85167</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>60771.60273</v>
+        <v>62218.05095</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>65968.29346</v>
+        <v>66025.25843999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>124397.93197</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>78706.73542</v>
+        <v>78793.01431999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>338792.0225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>338680.3540699999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>119962.797</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1963.45959</v>
@@ -2678,7 +2804,7 @@
         <v>11041.8007</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4579.405269999999</v>
+        <v>4642.491919999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>3983.20284</v>
@@ -2696,13 +2822,18 @@
         <v>4427.207</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>267717.90186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>267481.13586</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7172.573</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>26491.50587</v>
@@ -2711,76 +2842,86 @@
         <v>17723.69132</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29516.40779</v>
+        <v>29524.0349</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>53829.42740000001</v>
+        <v>55370.68362</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24735.17608</v>
+        <v>25818.54912</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>92005.85178</v>
+        <v>96680.64882999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>36298.96995000001</v>
+        <v>37745.41817</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>63895.54747</v>
+        <v>63952.51244999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>113339.03759</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>74279.52842</v>
+        <v>74365.80731999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>71074.12063999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>71199.21821000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>112790.224</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>77444.27821999999</v>
+        <v>77467.38064</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>58866.18482</v>
+        <v>58866.18482000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>241226.14033</v>
+        <v>241249.02432</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>147420.46751</v>
+        <v>148466.8154</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>330283.33183</v>
+        <v>330642.17252</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>402499.45787</v>
+        <v>594590.7776499999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>203597.22841</v>
+        <v>212493.46794</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>161153.44717</v>
+        <v>161153.4472</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>278209.0824</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>325785.95618</v>
+        <v>325849.4630399999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>358563.0598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>358551.22966</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>313828.706</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2820.0093</v>
@@ -2792,7 +2933,7 @@
         <v>11557.36131</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>37758.80499999999</v>
+        <v>37758.805</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>23527.35474</v>
@@ -2801,7 +2942,7 @@
         <v>120996.0301</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>61689.72261</v>
+        <v>61699.89353</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>55004.77358</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>172606.61667</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>205321.012</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>38307.97403</v>
@@ -2837,10 +2983,10 @@
         <v>36998.86769</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>47006.60382</v>
+        <v>47258.30472000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>110607.35844</v>
+        <v>111105.35991</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>58615.373</v>
@@ -2852,103 +2998,118 @@
         <v>57197.14569</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>109097.91204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>109079.36885</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>64136.74</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>36316.29489</v>
+        <v>36339.39731</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>14366.1322</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>64755.3222</v>
+        <v>64778.20619</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>49899.1873</v>
+        <v>50945.53519</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>269757.1094</v>
+        <v>270115.95009</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>234496.82395</v>
+        <v>426336.44283</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31300.14736</v>
+        <v>39688.2145</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>47533.30059000001</v>
+        <v>47533.30062</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>45461.63129</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>74607.63806</v>
+        <v>74671.14492000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>76858.53109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>76865.24414</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>44370.954</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>591880.02295</v>
+        <v>591717.0104400001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>690166.32904</v>
+        <v>689988.46962</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>823688.49816</v>
+        <v>824736.0302200001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1325020.48754</v>
+        <v>1335204.69865</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>360557.14026</v>
+        <v>319823.7061</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>63754.34979000001</v>
+        <v>-134102.44554</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-43288.70278</v>
+        <v>-38658.55283000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-53993.77733</v>
+        <v>-54192.31060999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-306932.71264</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-38953.23937</v>
+        <v>-39116.59931999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-275664.42007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-274825.13968</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-92398.126</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>41749.28541</v>
+        <v>41749.28541000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>83692.76695</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>85522.52646000001</v>
+        <v>85552.61513999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>108133.74894</v>
+        <v>108146.82885</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>111449.80236</v>
@@ -2969,49 +3130,57 @@
         <v>62912.99139</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>34193.97509000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>34193.97508999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>61619.178</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>550130.7375399999</v>
+        <v>549967.7250300001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>606473.56209</v>
+        <v>606295.7026699999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>738165.9717</v>
+        <v>739183.4150800001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1216886.7386</v>
+        <v>1227057.8698</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>249107.3379</v>
+        <v>208373.90374</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10446.98734</v>
+        <v>-208303.78267</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-70896.98988000001</v>
+        <v>-66266.83993</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-93365.02315000001</v>
+        <v>-93563.55643000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-363532.8744</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-101866.23076</v>
+        <v>-102029.59071</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-309858.39516</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-309019.11477</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-154017.304</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>242</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>